--- a/data/Batterystats_overview.xlsx
+++ b/data/Batterystats_overview.xlsx
@@ -1,18 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17426"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17571"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Frederic\Thesis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11910"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11910" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Tabelle1 (2)" sheetId="2" r:id="rId2"/>
+    <sheet name="Tabelle1 (3)" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="14">
   <si>
     <t>①: Bluetooth enabled (1h)</t>
   </si>
@@ -63,6 +65,27 @@
   </si>
   <si>
     <t>⑥</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>⑦</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Display active (1h)</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -650,6 +673,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-2000-44A7-8383-BDB4A05A599D}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -818,10 +846,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>3.6600000000000001E-2</c:v>
+                  <c:v>3.3399999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.3399999999999999E-2</c:v>
+                  <c:v>3.6600000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>5.9499999999999997E-2</c:v>
@@ -1117,6 +1145,998 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12133195716883902"/>
+          <c:y val="3.0599026457738675E-2"/>
+          <c:w val="0.86636146257671276"/>
+          <c:h val="0.61545314430830056"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Wunschname</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-0B6C-4F2E-A8AD-69C7264A5D65}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-0B6C-4F2E-A8AD-69C7264A5D65}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-0B6C-4F2E-A8AD-69C7264A5D65}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-0B6C-4F2E-A8AD-69C7264A5D65}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-0B6C-4F2E-A8AD-69C7264A5D65}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-0B6C-4F2E-A8AD-69C7264A5D65}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Tabelle1 (2)'!$B$2:$B$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>①: Bluetooth enabled (1h)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>②: ① and discoverable (1h)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>③: ② and RFCOMM connected (1h)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>④: ③ and transceiving (1h)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>⑤: ② and discovering (1h)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>⑥: WiFi videostream (1h)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Tabelle1 (2)'!$C$2:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3.3399999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.6600000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.9499999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.68</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-0B6C-4F2E-A8AD-69C7264A5D65}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="77599096"/>
+        <c:axId val="77600080"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="77599096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="@" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-2700000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="77600080"/>
+        <c:crossesAt val="1.0000000000000004E-5"/>
+        <c:auto val="0"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="77600080"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:max val="20"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Current [mA]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="77599096"/>
+        <c:crossesAt val="1"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1600"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId3"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12133195716883902"/>
+          <c:y val="3.0599026457738675E-2"/>
+          <c:w val="0.86636146257671276"/>
+          <c:h val="0.61545314430830056"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Wunschname</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-83C7-482D-BF69-F3DE01FB71C9}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-83C7-482D-BF69-F3DE01FB71C9}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-83C7-482D-BF69-F3DE01FB71C9}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-83C7-482D-BF69-F3DE01FB71C9}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-83C7-482D-BF69-F3DE01FB71C9}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-83C7-482D-BF69-F3DE01FB71C9}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Tabelle1 (3)'!$B$2:$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>①: Bluetooth enabled (1h)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>②: ① and discoverable (1h)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>③: ② and RFCOMM connected (1h)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>④: ③ and transceiving (1h)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>⑤: ② and discovering (1h)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>⑥: WiFi videostream (1h)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>⑦: Display active (1h)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Tabelle1 (3)'!$C$2:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>3.3399999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.6600000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.9499999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.68</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>140</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-83C7-482D-BF69-F3DE01FB71C9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="77599096"/>
+        <c:axId val="77600080"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="77599096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="@" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-2700000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="77600080"/>
+        <c:crossesAt val="1.0000000000000004E-5"/>
+        <c:auto val="0"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="77600080"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:max val="145"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Current [mA]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="77599096"/>
+        <c:crossesAt val="1"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1600"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId3"/>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1197,6 +2217,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -1701,6 +2801,1012 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2214,7 +4320,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>685801</xdr:colOff>
+      <xdr:colOff>685802</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>120141</xdr:rowOff>
     </xdr:to>
@@ -2232,9 +4338,9 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="8765079" y="359042"/>
-          <a:ext cx="8180457" cy="5285599"/>
+          <a:ext cx="8180458" cy="5285599"/>
           <a:chOff x="8764561" y="359262"/>
-          <a:chExt cx="8132789" cy="4884930"/>
+          <a:chExt cx="8132790" cy="4884930"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:graphicFrame macro="">
@@ -2252,7 +4358,7 @@
         </xdr:nvGraphicFramePr>
         <xdr:xfrm>
           <a:off x="9239250" y="361950"/>
-          <a:ext cx="7658100" cy="4882242"/>
+          <a:ext cx="7658101" cy="4882242"/>
         </xdr:xfrm>
         <a:graphic>
           <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2331,6 +4437,176 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.63836</cdr:x>
+      <cdr:y>0.0772</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>1</cdr:x>
+      <cdr:y>0.40301</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="Textfeld 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B1BD513-8793-4C6A-96A6-97497B79FF1C}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="5382307" y="376917"/>
+          <a:ext cx="2714625" cy="1590675"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>493059</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>67235</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>537883</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>100852</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Diagramm 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E4725FD-8177-44E0-8A28-2C944672F21F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.63836</cdr:x>
+      <cdr:y>0.0772</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>1</cdr:x>
+      <cdr:y>0.40301</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="Textfeld 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B1BD513-8793-4C6A-96A6-97497B79FF1C}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="5382307" y="376917"/>
+          <a:ext cx="2714625" cy="1590675"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>414618</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>67235</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>537883</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>100852</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80663893-2498-4E83-9C9C-1B3E6CD8C1DE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
@@ -2672,8 +4948,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D13"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2690,7 +4966,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>3.6600000000000001E-2</v>
+        <v>3.3399999999999999E-2</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
@@ -2704,7 +4980,7 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>3.3399999999999999E-2</v>
+        <v>3.6600000000000001E-2</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
@@ -2813,6 +5089,236 @@
       <c r="C13">
         <v>0</v>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:D9"/>
+  <sheetViews>
+    <sheetView showGridLines="0" showRowColHeaders="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.85546875" customWidth="1"/>
+    <col min="2" max="2" width="34.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>3.3399999999999999E-2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>3.6600000000000001E-2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>5.9499999999999997E-2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>2.68</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:D9"/>
+  <sheetViews>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.85546875" customWidth="1"/>
+    <col min="2" max="2" width="34.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>3.3399999999999999E-2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>3.6600000000000001E-2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>5.9499999999999997E-2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>2.68</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8">
+        <v>140</v>
+      </c>
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
